--- a/Lb3/lb3.xlsx
+++ b/Lb3/lb3.xlsx
@@ -17,12 +17,11 @@
     <sheet name="dat 16" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'dat 8'!$K$12:$K$511</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'dat 8'!$B$12:$B$711</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'dat 8'!$B$12:$B$711</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'dat 8'!$K$12:$K$511</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'dat 8'!$M$12:$M$511</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'dat 8'!$A$7:$A$706</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -502,34 +501,34 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -836,37 +835,37 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-4.6781765462194524</c:v>
+                  <c:v>-17.678176546219451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.3781765462194526</c:v>
+                  <c:v>-13.77817654621945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.0781765462194528</c:v>
+                  <c:v>-9.87817654621945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.77817654621945276</c:v>
+                  <c:v>-5.9781765462194496</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52182345378054729</c:v>
+                  <c:v>-2.0781765462194497</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8218234537805473</c:v>
+                  <c:v>1.8218234537805502</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1218234537805474</c:v>
+                  <c:v>5.7218234537805497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4218234537805472</c:v>
+                  <c:v>9.62182345378055</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.721823453780547</c:v>
+                  <c:v>13.52182345378055</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.0218234537805468</c:v>
+                  <c:v>17.421823453780551</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.3218234537805476</c:v>
+                  <c:v>21.321823453780549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -878,34 +877,34 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1087,7 +1086,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1149,7 +1148,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4916,8 +4915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M711"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5045,7 +5044,7 @@
         <v>-9.4619216213816095</v>
       </c>
       <c r="F12" s="2">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D12,$B$12:$B$711,"&lt;"&amp;E12)</f>
+        <f t="shared" ref="F12:F21" si="0">COUNTIFS($B$12:$B$711,"&gt;"&amp;D12,$B$12:$B$711,"&lt;"&amp;E12)</f>
         <v>6</v>
       </c>
       <c r="G12" s="2">
@@ -5076,15 +5075,15 @@
         <v>-9.4619216213816095</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ref="E13:E21" si="0">D13+$B$7</f>
+        <f t="shared" ref="E13:E21" si="1">D13+$B$7</f>
         <v>-8.1619216213816088</v>
       </c>
       <c r="F13" s="2">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D13,$B$12:$B$711,"&lt;"&amp;E13)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" ref="G13:G21" si="1">F13/$F$22</f>
+        <f t="shared" ref="G13:G21" si="2">F13/$F$22</f>
         <v>1.2857142857142857E-2</v>
       </c>
       <c r="H13" s="2">
@@ -5107,23 +5106,23 @@
         <v>3</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ref="D14:D21" si="2">D13+$B$7</f>
+        <f t="shared" ref="D14:D21" si="3">D13+$B$7</f>
         <v>-8.1619216213816088</v>
       </c>
       <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>-6.861921621381609</v>
+      </c>
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>-6.861921621381609</v>
-      </c>
-      <c r="F14" s="2">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D14,$B$12:$B$711,"&lt;"&amp;E14)</f>
         <v>45</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4285714285714279E-2</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" ref="H14:H21" si="3">H13+G14</f>
+        <f t="shared" ref="H14:H21" si="4">H13+G14</f>
         <v>8.5714285714285715E-2</v>
       </c>
       <c r="K14" s="1">
@@ -5142,23 +5141,23 @@
         <v>4</v>
       </c>
       <c r="D15" s="2">
+        <f t="shared" si="3"/>
+        <v>-6.861921621381609</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>-5.5619216213816092</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="G15" s="2">
         <f t="shared" si="2"/>
-        <v>-6.861921621381609</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>-5.5619216213816092</v>
-      </c>
-      <c r="F15" s="2">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D15,$B$12:$B$711,"&lt;"&amp;E15)</f>
-        <v>142</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="1"/>
         <v>0.20285714285714285</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.28857142857142859</v>
       </c>
       <c r="K15" s="1">
@@ -5177,23 +5176,23 @@
         <v>5</v>
       </c>
       <c r="D16" s="2">
+        <f t="shared" si="3"/>
+        <v>-5.5619216213816092</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>-4.2619216213816093</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>341</v>
+      </c>
+      <c r="G16" s="2">
         <f t="shared" si="2"/>
-        <v>-5.5619216213816092</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>-4.2619216213816093</v>
-      </c>
-      <c r="F16" s="2">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D16,$B$12:$B$711,"&lt;"&amp;E16)</f>
-        <v>341</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="1"/>
         <v>0.48714285714285716</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7757142857142858</v>
       </c>
       <c r="K16" s="1">
@@ -5212,23 +5211,23 @@
         <v>6</v>
       </c>
       <c r="D17" s="2">
+        <f t="shared" si="3"/>
+        <v>-4.2619216213816093</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.9619216213816095</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="G17" s="2">
         <f t="shared" si="2"/>
-        <v>-4.2619216213816093</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.9619216213816095</v>
-      </c>
-      <c r="F17" s="2">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D17,$B$12:$B$711,"&lt;"&amp;E17)</f>
-        <v>113</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="1"/>
         <v>0.16142857142857142</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93714285714285728</v>
       </c>
       <c r="K17" s="1">
@@ -5247,23 +5246,23 @@
         <v>7</v>
       </c>
       <c r="D18" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.9619216213816095</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.6619216213816095</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G18" s="2">
         <f t="shared" si="2"/>
-        <v>-2.9619216213816095</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.6619216213816095</v>
-      </c>
-      <c r="F18" s="2">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D18,$B$12:$B$711,"&lt;"&amp;E18)</f>
-        <v>33</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="1"/>
         <v>4.7142857142857146E-2</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.98428571428571443</v>
       </c>
       <c r="K18" s="1">
@@ -5282,23 +5281,23 @@
         <v>8</v>
       </c>
       <c r="D19" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.6619216213816095</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.36192162138160944</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G19" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6619216213816095</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.36192162138160944</v>
-      </c>
-      <c r="F19" s="2">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D19,$B$12:$B$711,"&lt;"&amp;E19)</f>
-        <v>7</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99428571428571444</v>
       </c>
       <c r="K19" s="1">
@@ -5317,23 +5316,23 @@
         <v>9</v>
       </c>
       <c r="D20" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.36192162138160944</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.93807837861839061</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G20" s="2">
         <f t="shared" si="2"/>
-        <v>-0.36192162138160944</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.93807837861839061</v>
-      </c>
-      <c r="F20" s="2">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D20,$B$12:$B$711,"&lt;"&amp;E20)</f>
-        <v>3</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="1"/>
         <v>4.2857142857142859E-3</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99857142857142878</v>
       </c>
       <c r="K20" s="1">
@@ -5352,23 +5351,23 @@
         <v>10</v>
       </c>
       <c r="D21" s="2">
+        <f t="shared" si="3"/>
+        <v>0.93807837861839061</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2380783786183907</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
         <f t="shared" si="2"/>
-        <v>0.93807837861839061</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2380783786183907</v>
-      </c>
-      <c r="F21" s="2">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D21,$B$12:$B$711,"&lt;"&amp;E21)</f>
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="1"/>
         <v>1.4285714285714286E-3</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="K21" s="1">
@@ -5475,7 +5474,7 @@
         <v>-8.0166556996932901</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:D39" si="4">D27+$B$7</f>
+        <f t="shared" ref="D28:D36" si="5">D27+$B$7</f>
         <v>-8.1619216213816088</v>
       </c>
       <c r="K28" s="1">
@@ -5491,7 +5490,7 @@
         <v>-7.8625999689097004</v>
       </c>
       <c r="D29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.861921621381609</v>
       </c>
       <c r="K29" s="1">
@@ -5507,7 +5506,7 @@
         <v>-7.8618304209393699</v>
       </c>
       <c r="D30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5.5619216213816092</v>
       </c>
       <c r="K30" s="1">
@@ -5523,7 +5522,7 @@
         <v>-7.7584111505250402</v>
       </c>
       <c r="D31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.2619216213816093</v>
       </c>
       <c r="K31" s="1">
@@ -5539,7 +5538,7 @@
         <v>-7.7179505481834401</v>
       </c>
       <c r="D32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.9619216213816095</v>
       </c>
       <c r="K32" s="1">
@@ -5555,7 +5554,7 @@
         <v>-7.70822844165109</v>
       </c>
       <c r="D33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.6619216213816095</v>
       </c>
       <c r="K33" s="1">
@@ -5571,7 +5570,7 @@
         <v>-7.66535515953644</v>
       </c>
       <c r="D34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.36192162138160944</v>
       </c>
       <c r="K34" s="1">
@@ -5587,7 +5586,7 @@
         <v>-7.6303666561688601</v>
       </c>
       <c r="D35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.93807837861839061</v>
       </c>
       <c r="K35" s="1">
@@ -5603,7 +5602,7 @@
         <v>-7.6232282806870098</v>
       </c>
       <c r="D36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2380783786183907</v>
       </c>
       <c r="K36" s="1">
@@ -12328,8 +12327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H511"/>
   <sheetViews>
-    <sheetView topLeftCell="A622" workbookViewId="0">
-      <selection sqref="A1:J639"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12397,7 +12396,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="3">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -12406,7 +12405,7 @@
       </c>
       <c r="B8" s="3">
         <f>(B7-B6)*B1</f>
-        <v>-15.882727766738965</v>
+        <v>0.11727223326103431</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -12435,23 +12434,23 @@
       </c>
       <c r="D12" s="3">
         <f>B3-(B8/2)</f>
-        <v>-21.262170842073715</v>
+        <v>-29.262170842073715</v>
       </c>
       <c r="E12" s="3">
         <f>D12+$B$7</f>
-        <v>-19.962170842073714</v>
+        <v>-26.362170842073716</v>
       </c>
       <c r="F12" s="4">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D12,$B$12:$B$711,"&lt;"&amp;E12)</f>
-        <v>29</v>
+        <f t="shared" ref="F12:F21" si="0">COUNTIFS($B$12:$B$711,"&gt;"&amp;D12,$B$12:$B$711,"&lt;"&amp;E12)</f>
+        <v>11</v>
       </c>
       <c r="G12" s="3">
         <f>F12/$F$22</f>
-        <v>7.8167115902964962E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H12" s="3">
         <f>G12</f>
-        <v>7.8167115902964962E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -12463,23 +12462,23 @@
       </c>
       <c r="D13" s="3">
         <f>D12+$B$7</f>
-        <v>-19.962170842073714</v>
+        <v>-26.362170842073716</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" ref="E13:E21" si="0">D13+$B$7</f>
-        <v>-18.662170842073714</v>
+        <f t="shared" ref="E13:E21" si="1">D13+$B$7</f>
+        <v>-23.462170842073718</v>
       </c>
       <c r="F13" s="4">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D13,$B$12:$B$711,"&lt;"&amp;E13)</f>
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" ref="G13:G21" si="1">F13/$F$22</f>
-        <v>0.11859838274932614</v>
+        <f t="shared" ref="G13:G21" si="2">F13/$F$22</f>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H13" s="3">
         <f>H12+G13</f>
-        <v>0.19676549865229109</v>
+        <v>0.11399999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -12490,24 +12489,24 @@
         <v>3</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:D21" si="2">D13+$B$7</f>
-        <v>-18.662170842073714</v>
+        <f t="shared" ref="D14:D21" si="3">D13+$B$7</f>
+        <v>-23.462170842073718</v>
       </c>
       <c r="E14" s="3">
+        <f t="shared" si="1"/>
+        <v>-20.562170842073719</v>
+      </c>
+      <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>-17.362170842073713</v>
-      </c>
-      <c r="F14" s="4">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D14,$B$12:$B$711,"&lt;"&amp;E14)</f>
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="1"/>
-        <v>9.9730458221024262E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.14199999999999999</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" ref="H14:H21" si="3">H13+G14</f>
-        <v>0.29649595687331537</v>
+        <f t="shared" ref="H14:H21" si="4">H13+G14</f>
+        <v>0.25600000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -12518,24 +12517,24 @@
         <v>4</v>
       </c>
       <c r="D15" s="3">
+        <f t="shared" si="3"/>
+        <v>-20.562170842073719</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>-17.662170842073721</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="G15" s="3">
         <f t="shared" si="2"/>
-        <v>-17.362170842073713</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>-16.062170842073712</v>
-      </c>
-      <c r="F15" s="4">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D15,$B$12:$B$711,"&lt;"&amp;E15)</f>
-        <v>58</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="1"/>
-        <v>0.15633423180592992</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="3"/>
-        <v>0.45283018867924529</v>
+        <f t="shared" si="4"/>
+        <v>0.42400000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -12546,24 +12545,24 @@
         <v>5</v>
       </c>
       <c r="D16" s="3">
+        <f t="shared" si="3"/>
+        <v>-17.662170842073721</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
+        <v>-14.76217084207372</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="G16" s="3">
         <f t="shared" si="2"/>
-        <v>-16.062170842073712</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>-14.762170842073711</v>
-      </c>
-      <c r="F16" s="4">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D16,$B$12:$B$711,"&lt;"&amp;E16)</f>
-        <v>55</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="1"/>
-        <v>0.14824797843665768</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="3"/>
-        <v>0.60107816711590301</v>
+        <f t="shared" si="4"/>
+        <v>0.66800000000000004</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -12574,24 +12573,24 @@
         <v>6</v>
       </c>
       <c r="D17" s="3">
+        <f t="shared" si="3"/>
+        <v>-14.76217084207372</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>-11.86217084207372</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="G17" s="3">
         <f t="shared" si="2"/>
-        <v>-14.762170842073711</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>-13.462170842073711</v>
-      </c>
-      <c r="F17" s="4">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D17,$B$12:$B$711,"&lt;"&amp;E17)</f>
-        <v>51</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="1"/>
-        <v>0.13746630727762804</v>
+        <v>0.192</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="3"/>
-        <v>0.73854447439353099</v>
+        <f t="shared" si="4"/>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -12602,24 +12601,24 @@
         <v>7</v>
       </c>
       <c r="D18" s="3">
+        <f t="shared" si="3"/>
+        <v>-11.86217084207372</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
+        <v>-8.9621708420737196</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="G18" s="3">
         <f t="shared" si="2"/>
-        <v>-13.462170842073711</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="0"/>
-        <v>-12.16217084207371</v>
-      </c>
-      <c r="F18" s="4">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D18,$B$12:$B$711,"&lt;"&amp;E18)</f>
-        <v>42</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="1"/>
-        <v>0.11320754716981132</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="3"/>
-        <v>0.85175202156334229</v>
+        <f t="shared" si="4"/>
+        <v>0.94600000000000006</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -12630,24 +12629,24 @@
         <v>8</v>
       </c>
       <c r="D19" s="3">
+        <f t="shared" si="3"/>
+        <v>-8.9621708420737196</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.0621708420737193</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G19" s="3">
         <f t="shared" si="2"/>
-        <v>-12.16217084207371</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="0"/>
-        <v>-10.862170842073709</v>
-      </c>
-      <c r="F19" s="4">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D19,$B$12:$B$711,"&lt;"&amp;E19)</f>
-        <v>26</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="1"/>
-        <v>7.0080862533692723E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="3"/>
-        <v>0.92183288409703501</v>
+        <f t="shared" si="4"/>
+        <v>0.9880000000000001</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -12658,24 +12657,24 @@
         <v>9</v>
       </c>
       <c r="D20" s="3">
+        <f t="shared" si="3"/>
+        <v>-6.0621708420737193</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.1621708420737193</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
         <f t="shared" si="2"/>
-        <v>-10.862170842073709</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="0"/>
-        <v>-9.5621708420737086</v>
-      </c>
-      <c r="F20" s="4">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D20,$B$12:$B$711,"&lt;"&amp;E20)</f>
-        <v>16</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="1"/>
-        <v>4.3126684636118601E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="3"/>
-        <v>0.96495956873315358</v>
+        <f t="shared" si="4"/>
+        <v>0.99400000000000011</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -12686,23 +12685,23 @@
         <v>10</v>
       </c>
       <c r="D21" s="3">
+        <f t="shared" si="3"/>
+        <v>-3.1621708420737193</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.26217084207371943</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <f t="shared" si="2"/>
-        <v>-9.5621708420737086</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="0"/>
-        <v>-8.2621708420737079</v>
-      </c>
-      <c r="F21" s="4">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D21,$B$12:$B$711,"&lt;"&amp;E21)</f>
-        <v>13</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="1"/>
-        <v>3.5040431266846361E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -12715,7 +12714,7 @@
       </c>
       <c r="F22" s="4">
         <f>SUM(F12:F21)</f>
-        <v>371</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -12740,7 +12739,7 @@
       </c>
       <c r="D26" s="3">
         <f>B3-(B8/2)</f>
-        <v>-21.262170842073715</v>
+        <v>-29.262170842073715</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -12749,7 +12748,7 @@
       </c>
       <c r="D27" s="3">
         <f>D26+$B$7</f>
-        <v>-19.962170842073714</v>
+        <v>-26.362170842073716</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -12757,8 +12756,8 @@
         <v>-26.018853614702</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" ref="D28:D39" si="4">D27+$B$7</f>
-        <v>-18.662170842073714</v>
+        <f t="shared" ref="D28:D36" si="5">D27+$B$7</f>
+        <v>-23.462170842073718</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -12766,8 +12765,8 @@
         <v>-25.9520659592608</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="4"/>
-        <v>-17.362170842073713</v>
+        <f t="shared" si="5"/>
+        <v>-20.562170842073719</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -12775,8 +12774,8 @@
         <v>-25.796735598368699</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="4"/>
-        <v>-16.062170842073712</v>
+        <f t="shared" si="5"/>
+        <v>-17.662170842073721</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -12784,8 +12783,8 @@
         <v>-25.784250826579299</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="4"/>
-        <v>-14.762170842073711</v>
+        <f t="shared" si="5"/>
+        <v>-14.76217084207372</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -12793,8 +12792,8 @@
         <v>-25.487810847628701</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="4"/>
-        <v>-13.462170842073711</v>
+        <f t="shared" si="5"/>
+        <v>-11.86217084207372</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -12802,8 +12801,8 @@
         <v>-25.465830155294501</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="4"/>
-        <v>-12.16217084207371</v>
+        <f t="shared" si="5"/>
+        <v>-8.9621708420737196</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -12811,8 +12810,8 @@
         <v>-25.462642702867701</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="4"/>
-        <v>-10.862170842073709</v>
+        <f t="shared" si="5"/>
+        <v>-6.0621708420737193</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -12820,8 +12819,8 @@
         <v>-25.288750785754001</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="4"/>
-        <v>-9.5621708420737086</v>
+        <f t="shared" si="5"/>
+        <v>-3.1621708420737193</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -12829,8 +12828,8 @@
         <v>-25.195947991783498</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="4"/>
-        <v>-8.2621708420737079</v>
+        <f t="shared" si="5"/>
+        <v>-0.26217084207371943</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -15218,12 +15217,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J639"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15333,7 +15333,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="3">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -15350,7 +15350,7 @@
       </c>
       <c r="B8" s="3">
         <f>(B7-B6)*B1</f>
-        <v>-25.713714076762297</v>
+        <v>0.28628592323769908</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -15417,23 +15417,23 @@
       </c>
       <c r="D12" s="3">
         <f>B3-(B8/2)</f>
-        <v>-4.6781765462194524</v>
+        <v>-17.678176546219451</v>
       </c>
       <c r="E12" s="3">
         <f>D12+$B$7</f>
-        <v>-3.3781765462194526</v>
+        <v>-13.77817654621945</v>
       </c>
       <c r="F12" s="4">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D12,$B$12:$B$711,"&lt;"&amp;E12)</f>
-        <v>11</v>
+        <f t="shared" ref="F12:F21" si="0">COUNTIFS($B$12:$B$711,"&gt;"&amp;D12,$B$12:$B$711,"&lt;"&amp;E12)</f>
+        <v>2</v>
       </c>
       <c r="G12" s="3">
         <f>F12/$F$22</f>
-        <v>2.564102564102564E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H12" s="3">
         <f>G12</f>
-        <v>2.564102564102564E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -15448,23 +15448,23 @@
       </c>
       <c r="D13" s="3">
         <f>D12+$B$7</f>
-        <v>-3.3781765462194526</v>
+        <v>-13.77817654621945</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" ref="E13:E21" si="0">D13+$B$7</f>
-        <v>-2.0781765462194528</v>
+        <f t="shared" ref="E13:E21" si="1">D13+$B$7</f>
+        <v>-9.87817654621945</v>
       </c>
       <c r="F13" s="4">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D13,$B$12:$B$711,"&lt;"&amp;E13)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" ref="G13:G21" si="1">F13/$F$22</f>
-        <v>3.2634032634032632E-2</v>
+        <f t="shared" ref="G13:G21" si="2">F13/$F$22</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H13" s="3">
         <f>H12+G13</f>
-        <v>5.8275058275058272E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -15478,24 +15478,24 @@
         <v>3</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:D21" si="2">D13+$B$7</f>
-        <v>-2.0781765462194528</v>
+        <f t="shared" ref="D14:D21" si="3">D13+$B$7</f>
+        <v>-9.87817654621945</v>
       </c>
       <c r="E14" s="3">
+        <f t="shared" si="1"/>
+        <v>-5.9781765462194496</v>
+      </c>
+      <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>-0.77817654621945276</v>
-      </c>
-      <c r="F14" s="4">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D14,$B$12:$B$711,"&lt;"&amp;E14)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="1"/>
-        <v>1.8648018648018648E-2</v>
+        <f t="shared" si="2"/>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" ref="H14:H21" si="3">H13+G14</f>
-        <v>7.6923076923076927E-2</v>
+        <f t="shared" ref="H14:H21" si="4">H13+G14</f>
+        <v>1.6E-2</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -15509,24 +15509,24 @@
         <v>4</v>
       </c>
       <c r="D15" s="3">
+        <f t="shared" si="3"/>
+        <v>-5.9781765462194496</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.0781765462194497</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G15" s="3">
         <f t="shared" si="2"/>
-        <v>-0.77817654621945276</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.52182345378054729</v>
-      </c>
-      <c r="F15" s="4">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D15,$B$12:$B$711,"&lt;"&amp;E15)</f>
-        <v>26</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="1"/>
-        <v>6.0606060606060608E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="3"/>
-        <v>0.13752913752913754</v>
+        <f t="shared" si="4"/>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -15540,24 +15540,24 @@
         <v>5</v>
       </c>
       <c r="D16" s="3">
+        <f t="shared" si="3"/>
+        <v>-2.0781765462194497</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8218234537805502</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="G16" s="3">
         <f t="shared" si="2"/>
-        <v>0.52182345378054729</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>1.8218234537805473</v>
-      </c>
-      <c r="F16" s="4">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D16,$B$12:$B$711,"&lt;"&amp;E16)</f>
-        <v>37</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="1"/>
-        <v>8.6247086247086241E-2</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="3"/>
-        <v>0.22377622377622378</v>
+        <f t="shared" si="4"/>
+        <v>0.22399999999999998</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -15571,24 +15571,24 @@
         <v>6</v>
       </c>
       <c r="D17" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8218234537805502</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>5.7218234537805497</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="G17" s="3">
         <f t="shared" si="2"/>
-        <v>1.8218234537805473</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>3.1218234537805474</v>
-      </c>
-      <c r="F17" s="4">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D17,$B$12:$B$711,"&lt;"&amp;E17)</f>
-        <v>62</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="1"/>
-        <v>0.14452214452214451</v>
+        <v>0.496</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="3"/>
-        <v>0.36829836829836826</v>
+        <f t="shared" si="4"/>
+        <v>0.72</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -15602,24 +15602,24 @@
         <v>7</v>
       </c>
       <c r="D18" s="3">
+        <f t="shared" si="3"/>
+        <v>5.7218234537805497</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
+        <v>9.62182345378055</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="G18" s="3">
         <f t="shared" si="2"/>
-        <v>3.1218234537805474</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="0"/>
-        <v>4.4218234537805472</v>
-      </c>
-      <c r="F18" s="4">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D18,$B$12:$B$711,"&lt;"&amp;E18)</f>
-        <v>94</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="1"/>
-        <v>0.21911421911421911</v>
+        <v>0.214</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="3"/>
-        <v>0.58741258741258739</v>
+        <f t="shared" si="4"/>
+        <v>0.93399999999999994</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -15633,24 +15633,24 @@
         <v>8</v>
       </c>
       <c r="D19" s="3">
+        <f t="shared" si="3"/>
+        <v>9.62182345378055</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>13.52182345378055</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G19" s="3">
         <f t="shared" si="2"/>
-        <v>4.4218234537805472</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="0"/>
-        <v>5.721823453780547</v>
-      </c>
-      <c r="F19" s="4">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D19,$B$12:$B$711,"&lt;"&amp;E19)</f>
-        <v>92</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="1"/>
-        <v>0.21445221445221446</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="3"/>
-        <v>0.8018648018648018</v>
+        <f t="shared" si="4"/>
+        <v>0.98</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -15664,24 +15664,24 @@
         <v>9</v>
       </c>
       <c r="D20" s="3">
+        <f t="shared" si="3"/>
+        <v>13.52182345378055</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>17.421823453780551</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
         <f t="shared" si="2"/>
-        <v>5.721823453780547</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="0"/>
-        <v>7.0218234537805468</v>
-      </c>
-      <c r="F20" s="4">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D20,$B$12:$B$711,"&lt;"&amp;E20)</f>
-        <v>54</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="1"/>
-        <v>0.12587412587412589</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="3"/>
-        <v>0.92773892773892763</v>
+        <f t="shared" si="4"/>
+        <v>0.996</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -15695,24 +15695,24 @@
         <v>10</v>
       </c>
       <c r="D21" s="3">
+        <f t="shared" si="3"/>
+        <v>17.421823453780551</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>21.321823453780549</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G21" s="3">
         <f t="shared" si="2"/>
-        <v>7.0218234537805468</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="0"/>
-        <v>8.3218234537805476</v>
-      </c>
-      <c r="F21" s="4">
-        <f>COUNTIFS($B$12:$B$711,"&gt;"&amp;D21,$B$12:$B$711,"&lt;"&amp;E21)</f>
-        <v>31</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="1"/>
-        <v>7.2261072261072257E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="3"/>
-        <v>0.99999999999999989</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -15729,7 +15729,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="4">
         <f>SUM(F12:F21)</f>
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -15786,7 +15786,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="2">
         <f>B3-(B8/2)</f>
-        <v>-4.6781765462194524</v>
+        <v>-17.678176546219451</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -15803,7 +15803,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="2">
         <f>D26+$B$7</f>
-        <v>-3.3781765462194526</v>
+        <v>-13.77817654621945</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -15819,8 +15819,8 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="2">
-        <f t="shared" ref="D28:E39" si="4">D27+$B$7</f>
-        <v>-2.0781765462194528</v>
+        <f t="shared" ref="D28:D36" si="5">D27+$B$7</f>
+        <v>-9.87817654621945</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -15836,8 +15836,8 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="2">
-        <f t="shared" si="4"/>
-        <v>-0.77817654621945276</v>
+        <f t="shared" si="5"/>
+        <v>-5.9781765462194496</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -15853,8 +15853,8 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="2">
-        <f t="shared" si="4"/>
-        <v>0.52182345378054729</v>
+        <f t="shared" si="5"/>
+        <v>-2.0781765462194497</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -15870,8 +15870,8 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="2">
-        <f t="shared" si="4"/>
-        <v>1.8218234537805473</v>
+        <f t="shared" si="5"/>
+        <v>1.8218234537805502</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
@@ -15887,8 +15887,8 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="2">
-        <f t="shared" si="4"/>
-        <v>3.1218234537805474</v>
+        <f t="shared" si="5"/>
+        <v>5.7218234537805497</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3"/>
@@ -15904,8 +15904,8 @@
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="2">
-        <f t="shared" si="4"/>
-        <v>4.4218234537805472</v>
+        <f t="shared" si="5"/>
+        <v>9.62182345378055</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -15921,8 +15921,8 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="2">
-        <f t="shared" si="4"/>
-        <v>5.721823453780547</v>
+        <f t="shared" si="5"/>
+        <v>13.52182345378055</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -15938,8 +15938,8 @@
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="2">
-        <f t="shared" si="4"/>
-        <v>7.0218234537805468</v>
+        <f t="shared" si="5"/>
+        <v>17.421823453780551</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -15955,8 +15955,8 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="2">
-        <f t="shared" si="4"/>
-        <v>8.3218234537805476</v>
+        <f t="shared" si="5"/>
+        <v>21.321823453780549</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
